--- a/Long-Term-Unemployment-Statistics.xlsx
+++ b/Long-Term-Unemployment-Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1693" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1711" sqref="B1711"/>
+    <sheetView tabSelected="1" topLeftCell="A1694" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1708" sqref="C1708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24352,7 +24352,7 @@
         <v>10</v>
       </c>
       <c r="C1708" s="1">
-        <v>42036</v>
+        <v>41671</v>
       </c>
       <c r="D1708">
         <v>170000</v>

--- a/Long-Term-Unemployment-Statistics.xlsx
+++ b/Long-Term-Unemployment-Statistics.xlsx
@@ -24352,7 +24352,7 @@
         <v>10</v>
       </c>
       <c r="C1708" s="1">
-        <v>41671</v>
+        <v>42401</v>
       </c>
       <c r="D1708">
         <v>170000</v>

--- a/Long-Term-Unemployment-Statistics.xlsx
+++ b/Long-Term-Unemployment-Statistics.xlsx
@@ -24352,7 +24352,7 @@
         <v>10</v>
       </c>
       <c r="C1708" s="1">
-        <v>42401</v>
+        <v>41671</v>
       </c>
       <c r="D1708">
         <v>170000</v>

--- a/Long-Term-Unemployment-Statistics.xlsx
+++ b/Long-Term-Unemployment-Statistics.xlsx
@@ -24352,7 +24352,7 @@
         <v>10</v>
       </c>
       <c r="C1708" s="1">
-        <v>41671</v>
+        <v>42005</v>
       </c>
       <c r="D1708">
         <v>170000</v>
